--- a/spreadsheets/za_expandabilityfactors.xlsx
+++ b/spreadsheets/za_expandabilityfactors.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
